--- a/SPREADSHEETS/yyyy-mm-dd_CSF_Profile.xlsx
+++ b/SPREADSHEETS/yyyy-mm-dd_CSF_Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/csf_profile_clean/SPREADSHEETS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44ED88F-949E-DF42-917F-6F0AEBA4E97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7F5C4B-AC84-834E-86AE-CB187C3C43AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="19880" xr2:uid="{89415ED1-5C32-8D40-8CF6-512DEE38C7C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" activeTab="1" xr2:uid="{89415ED1-5C32-8D40-8CF6-512DEE38C7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10532" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10208" uniqueCount="1367">
   <si>
     <t>ID</t>
   </si>
@@ -4866,21 +4866,6 @@
   <dxfs count="35">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4898,15 +4883,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top"/>
@@ -4994,6 +4970,30 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -30150,7 +30150,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A41C71D5-F969-DD43-9DE2-FFADBACF1036}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A41C71D5-F969-DD43-9DE2-FFADBACF1036}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="53">
     <pivotField showAll="0"/>
@@ -30268,29 +30268,29 @@
     <dataField name="Average of Q3 Target Score" fld="33" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="34">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="27">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30300,26 +30300,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="21">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30343,7 +30343,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7686255C-AB9C-BA40-BD52-9250D19B0C3C}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7686255C-AB9C-BA40-BD52-9250D19B0C3C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="53">
     <pivotField showAll="0"/>
@@ -30523,22 +30523,22 @@
     <dataField name="Average of Q2 Actual Score" fld="24" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="21">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="14">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="13">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30548,10 +30548,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="11">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30575,7 +30575,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{061EAD72-7B98-F84E-A0EE-164820CC24FE}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{061EAD72-7B98-F84E-A0EE-164820CC24FE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:D28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="53">
     <pivotField showAll="0"/>
@@ -30778,22 +30778,22 @@
     <dataField name="Target" fld="25" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="13">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="6">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="5">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30803,10 +30803,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="3">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -30859,11 +30859,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9916778-A08D-DF42-9FBA-52E5F6BEADCA}" name="tblIndex" displayName="tblIndex" ref="A28:B33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9916778-A08D-DF42-9FBA-52E5F6BEADCA}" name="tblIndex" displayName="tblIndex" ref="A28:B33" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A28:B33" xr:uid="{79D4FE47-D851-F14B-8134-4D296B994D6F}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{99BAB2CE-A705-5F41-815C-34C0D9F9D14A}" name="Source" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4624ACC7-BA74-024B-98FC-0EECB50A6611}" name="Link" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{99BAB2CE-A705-5F41-815C-34C0D9F9D14A}" name="Source" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{4624ACC7-BA74-024B-98FC-0EECB50A6611}" name="Link" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31253,7 +31253,7 @@
   </sheetPr>
   <dimension ref="A1:W219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -31571,9 +31571,9 @@
   </sheetPr>
   <dimension ref="A1:BA363"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40:J363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31584,7 +31584,7 @@
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
@@ -37239,9 +37239,6 @@
       <c r="I40" t="s">
         <v>486</v>
       </c>
-      <c r="J40" t="s">
-        <v>250</v>
-      </c>
       <c r="K40" t="s">
         <v>72</v>
       </c>
@@ -37352,9 +37349,6 @@
       <c r="I41" t="s">
         <v>488</v>
       </c>
-      <c r="J41" t="s">
-        <v>250</v>
-      </c>
       <c r="K41" t="s">
         <v>72</v>
       </c>
@@ -37465,9 +37459,6 @@
       <c r="I42" t="s">
         <v>490</v>
       </c>
-      <c r="J42" t="s">
-        <v>364</v>
-      </c>
       <c r="K42" t="s">
         <v>72</v>
       </c>
@@ -37578,9 +37569,6 @@
       <c r="I43" t="s">
         <v>492</v>
       </c>
-      <c r="J43" t="s">
-        <v>364</v>
-      </c>
       <c r="K43" t="s">
         <v>72</v>
       </c>
@@ -37691,9 +37679,6 @@
       <c r="I44" t="s">
         <v>496</v>
       </c>
-      <c r="J44" t="s">
-        <v>497</v>
-      </c>
       <c r="K44" t="s">
         <v>72</v>
       </c>
@@ -37804,9 +37789,6 @@
       <c r="I45" t="s">
         <v>499</v>
       </c>
-      <c r="J45" t="s">
-        <v>497</v>
-      </c>
       <c r="K45" t="s">
         <v>72</v>
       </c>
@@ -37917,9 +37899,6 @@
       <c r="I46" t="s">
         <v>501</v>
       </c>
-      <c r="J46" t="s">
-        <v>260</v>
-      </c>
       <c r="K46" t="s">
         <v>72</v>
       </c>
@@ -38030,9 +38009,6 @@
       <c r="I47" t="s">
         <v>503</v>
       </c>
-      <c r="J47" t="s">
-        <v>260</v>
-      </c>
       <c r="K47" t="s">
         <v>72</v>
       </c>
@@ -38143,9 +38119,6 @@
       <c r="I48" t="s">
         <v>505</v>
       </c>
-      <c r="J48" t="s">
-        <v>260</v>
-      </c>
       <c r="K48" t="s">
         <v>72</v>
       </c>
@@ -38256,9 +38229,6 @@
       <c r="I49" t="s">
         <v>509</v>
       </c>
-      <c r="J49" t="s">
-        <v>510</v>
-      </c>
       <c r="K49" t="s">
         <v>72</v>
       </c>
@@ -38369,9 +38339,6 @@
       <c r="I50" t="s">
         <v>512</v>
       </c>
-      <c r="J50" t="s">
-        <v>510</v>
-      </c>
       <c r="K50" t="s">
         <v>72</v>
       </c>
@@ -38482,9 +38449,6 @@
       <c r="I51" t="s">
         <v>514</v>
       </c>
-      <c r="J51" t="s">
-        <v>510</v>
-      </c>
       <c r="K51" t="s">
         <v>72</v>
       </c>
@@ -38595,9 +38559,6 @@
       <c r="I52" t="s">
         <v>516</v>
       </c>
-      <c r="J52" t="s">
-        <v>450</v>
-      </c>
       <c r="K52" t="s">
         <v>72</v>
       </c>
@@ -38708,9 +38669,6 @@
       <c r="I53" t="s">
         <v>518</v>
       </c>
-      <c r="J53" t="s">
-        <v>274</v>
-      </c>
       <c r="K53" t="s">
         <v>72</v>
       </c>
@@ -38821,9 +38779,6 @@
       <c r="I54" t="s">
         <v>520</v>
       </c>
-      <c r="J54" t="s">
-        <v>274</v>
-      </c>
       <c r="K54" t="s">
         <v>72</v>
       </c>
@@ -38934,9 +38889,6 @@
       <c r="I55" t="s">
         <v>522</v>
       </c>
-      <c r="J55" t="s">
-        <v>274</v>
-      </c>
       <c r="K55" t="s">
         <v>72</v>
       </c>
@@ -39047,9 +38999,6 @@
       <c r="I56" t="s">
         <v>524</v>
       </c>
-      <c r="J56" t="s">
-        <v>274</v>
-      </c>
       <c r="K56" t="s">
         <v>72</v>
       </c>
@@ -39160,9 +39109,6 @@
       <c r="I57" t="s">
         <v>528</v>
       </c>
-      <c r="J57" t="s">
-        <v>529</v>
-      </c>
       <c r="K57" t="s">
         <v>72</v>
       </c>
@@ -39273,9 +39219,6 @@
       <c r="I58" t="s">
         <v>531</v>
       </c>
-      <c r="J58" t="s">
-        <v>529</v>
-      </c>
       <c r="K58" t="s">
         <v>72</v>
       </c>
@@ -39386,9 +39329,6 @@
       <c r="I59" t="s">
         <v>533</v>
       </c>
-      <c r="J59" t="s">
-        <v>529</v>
-      </c>
       <c r="K59" t="s">
         <v>72</v>
       </c>
@@ -39499,9 +39439,6 @@
       <c r="I60" t="s">
         <v>535</v>
       </c>
-      <c r="J60" t="s">
-        <v>529</v>
-      </c>
       <c r="K60" t="s">
         <v>72</v>
       </c>
@@ -39612,9 +39549,6 @@
       <c r="I61" t="s">
         <v>537</v>
       </c>
-      <c r="J61" t="s">
-        <v>373</v>
-      </c>
       <c r="K61" t="s">
         <v>72</v>
       </c>
@@ -39725,9 +39659,6 @@
       <c r="I62" t="s">
         <v>539</v>
       </c>
-      <c r="J62" t="s">
-        <v>373</v>
-      </c>
       <c r="K62" t="s">
         <v>72</v>
       </c>
@@ -39838,9 +39769,6 @@
       <c r="I63" t="s">
         <v>543</v>
       </c>
-      <c r="J63" t="s">
-        <v>544</v>
-      </c>
       <c r="K63" t="s">
         <v>72</v>
       </c>
@@ -39951,9 +39879,6 @@
       <c r="I64" t="s">
         <v>546</v>
       </c>
-      <c r="J64" t="s">
-        <v>544</v>
-      </c>
       <c r="K64" t="s">
         <v>72</v>
       </c>
@@ -40064,9 +39989,6 @@
       <c r="I65" t="s">
         <v>548</v>
       </c>
-      <c r="J65" t="s">
-        <v>384</v>
-      </c>
       <c r="K65" t="s">
         <v>72</v>
       </c>
@@ -40177,9 +40099,6 @@
       <c r="I66" t="s">
         <v>550</v>
       </c>
-      <c r="J66" t="s">
-        <v>384</v>
-      </c>
       <c r="K66" t="s">
         <v>72</v>
       </c>
@@ -40290,9 +40209,6 @@
       <c r="I67" t="s">
         <v>552</v>
       </c>
-      <c r="J67" t="s">
-        <v>384</v>
-      </c>
       <c r="K67" t="s">
         <v>72</v>
       </c>
@@ -40403,9 +40319,6 @@
       <c r="I68" t="s">
         <v>554</v>
       </c>
-      <c r="J68" t="s">
-        <v>384</v>
-      </c>
       <c r="K68" t="s">
         <v>72</v>
       </c>
@@ -40516,9 +40429,6 @@
       <c r="I69" t="s">
         <v>556</v>
       </c>
-      <c r="J69" t="s">
-        <v>104</v>
-      </c>
       <c r="K69" t="s">
         <v>72</v>
       </c>
@@ -40629,9 +40539,6 @@
       <c r="I70" t="s">
         <v>560</v>
       </c>
-      <c r="J70" t="s">
-        <v>561</v>
-      </c>
       <c r="K70" t="s">
         <v>72</v>
       </c>
@@ -40742,9 +40649,6 @@
       <c r="I71" t="s">
         <v>563</v>
       </c>
-      <c r="J71" t="s">
-        <v>561</v>
-      </c>
       <c r="K71" t="s">
         <v>72</v>
       </c>
@@ -40855,9 +40759,6 @@
       <c r="I72" t="s">
         <v>565</v>
       </c>
-      <c r="J72" t="s">
-        <v>561</v>
-      </c>
       <c r="K72" t="s">
         <v>72</v>
       </c>
@@ -40968,9 +40869,6 @@
       <c r="I73" t="s">
         <v>569</v>
       </c>
-      <c r="J73" t="s">
-        <v>570</v>
-      </c>
       <c r="K73" t="s">
         <v>72</v>
       </c>
@@ -41081,9 +40979,6 @@
       <c r="I74" t="s">
         <v>572</v>
       </c>
-      <c r="J74" t="s">
-        <v>570</v>
-      </c>
       <c r="K74" t="s">
         <v>72</v>
       </c>
@@ -41194,9 +41089,6 @@
       <c r="I75" t="s">
         <v>574</v>
       </c>
-      <c r="J75" t="s">
-        <v>570</v>
-      </c>
       <c r="K75" t="s">
         <v>72</v>
       </c>
@@ -41307,9 +41199,6 @@
       <c r="I76" t="s">
         <v>578</v>
       </c>
-      <c r="J76" t="s">
-        <v>579</v>
-      </c>
       <c r="K76" t="s">
         <v>72</v>
       </c>
@@ -41420,9 +41309,6 @@
       <c r="I77" t="s">
         <v>581</v>
       </c>
-      <c r="J77" t="s">
-        <v>579</v>
-      </c>
       <c r="K77" t="s">
         <v>72</v>
       </c>
@@ -41533,9 +41419,6 @@
       <c r="I78" t="s">
         <v>583</v>
       </c>
-      <c r="J78" t="s">
-        <v>115</v>
-      </c>
       <c r="K78" t="s">
         <v>72</v>
       </c>
@@ -41646,9 +41529,6 @@
       <c r="I79" t="s">
         <v>587</v>
       </c>
-      <c r="J79" t="s">
-        <v>588</v>
-      </c>
       <c r="K79" t="s">
         <v>72</v>
       </c>
@@ -41759,9 +41639,6 @@
       <c r="I80" t="s">
         <v>590</v>
       </c>
-      <c r="J80" t="s">
-        <v>588</v>
-      </c>
       <c r="K80" t="s">
         <v>72</v>
       </c>
@@ -41872,9 +41749,6 @@
       <c r="I81" t="s">
         <v>592</v>
       </c>
-      <c r="J81" t="s">
-        <v>588</v>
-      </c>
       <c r="K81" t="s">
         <v>72</v>
       </c>
@@ -41985,9 +41859,6 @@
       <c r="I82" t="s">
         <v>596</v>
       </c>
-      <c r="J82" t="s">
-        <v>597</v>
-      </c>
       <c r="K82" t="s">
         <v>72</v>
       </c>
@@ -42098,9 +41969,6 @@
       <c r="I83" t="s">
         <v>599</v>
       </c>
-      <c r="J83" t="s">
-        <v>597</v>
-      </c>
       <c r="K83" t="s">
         <v>72</v>
       </c>
@@ -42211,9 +42079,6 @@
       <c r="I84" t="s">
         <v>601</v>
       </c>
-      <c r="J84" t="s">
-        <v>597</v>
-      </c>
       <c r="K84" t="s">
         <v>72</v>
       </c>
@@ -42324,9 +42189,6 @@
       <c r="I85" t="s">
         <v>608</v>
       </c>
-      <c r="J85" t="s">
-        <v>609</v>
-      </c>
       <c r="K85" t="s">
         <v>72</v>
       </c>
@@ -42437,9 +42299,6 @@
       <c r="I86" t="s">
         <v>611</v>
       </c>
-      <c r="J86" t="s">
-        <v>609</v>
-      </c>
       <c r="K86" t="s">
         <v>72</v>
       </c>
@@ -42550,9 +42409,6 @@
       <c r="I87" t="s">
         <v>613</v>
       </c>
-      <c r="J87" t="s">
-        <v>609</v>
-      </c>
       <c r="K87" t="s">
         <v>72</v>
       </c>
@@ -42663,9 +42519,6 @@
       <c r="I88" t="s">
         <v>615</v>
       </c>
-      <c r="J88" t="s">
-        <v>609</v>
-      </c>
       <c r="K88" t="s">
         <v>72</v>
       </c>
@@ -42776,9 +42629,6 @@
       <c r="I89" t="s">
         <v>617</v>
       </c>
-      <c r="J89" t="s">
-        <v>609</v>
-      </c>
       <c r="K89" t="s">
         <v>72</v>
       </c>
@@ -42889,9 +42739,6 @@
       <c r="I90" t="s">
         <v>621</v>
       </c>
-      <c r="J90" t="s">
-        <v>609</v>
-      </c>
       <c r="K90" t="s">
         <v>72</v>
       </c>
@@ -43002,9 +42849,6 @@
       <c r="I91" t="s">
         <v>623</v>
       </c>
-      <c r="J91" t="s">
-        <v>609</v>
-      </c>
       <c r="K91" t="s">
         <v>72</v>
       </c>
@@ -43115,9 +42959,6 @@
       <c r="I92" t="s">
         <v>625</v>
       </c>
-      <c r="J92" t="s">
-        <v>609</v>
-      </c>
       <c r="K92" t="s">
         <v>72</v>
       </c>
@@ -43228,9 +43069,6 @@
       <c r="I93" t="s">
         <v>627</v>
       </c>
-      <c r="J93" t="s">
-        <v>609</v>
-      </c>
       <c r="K93" t="s">
         <v>72</v>
       </c>
@@ -43341,9 +43179,6 @@
       <c r="I94" t="s">
         <v>629</v>
       </c>
-      <c r="J94" t="s">
-        <v>127</v>
-      </c>
       <c r="K94" t="s">
         <v>72</v>
       </c>
@@ -43454,9 +43289,6 @@
       <c r="I95" t="s">
         <v>631</v>
       </c>
-      <c r="J95" t="s">
-        <v>127</v>
-      </c>
       <c r="K95" t="s">
         <v>72</v>
       </c>
@@ -43567,9 +43399,6 @@
       <c r="I96" t="s">
         <v>635</v>
       </c>
-      <c r="J96" t="s">
-        <v>636</v>
-      </c>
       <c r="K96" t="s">
         <v>72</v>
       </c>
@@ -43680,9 +43509,6 @@
       <c r="I97" t="s">
         <v>638</v>
       </c>
-      <c r="J97" t="s">
-        <v>636</v>
-      </c>
       <c r="K97" t="s">
         <v>72</v>
       </c>
@@ -43793,9 +43619,6 @@
       <c r="I98" t="s">
         <v>640</v>
       </c>
-      <c r="J98" t="s">
-        <v>636</v>
-      </c>
       <c r="K98" t="s">
         <v>72</v>
       </c>
@@ -43906,9 +43729,6 @@
       <c r="I99" t="s">
         <v>644</v>
       </c>
-      <c r="J99" t="s">
-        <v>645</v>
-      </c>
       <c r="K99" t="s">
         <v>72</v>
       </c>
@@ -44019,9 +43839,6 @@
       <c r="I100" t="s">
         <v>647</v>
       </c>
-      <c r="J100" t="s">
-        <v>645</v>
-      </c>
       <c r="K100" t="s">
         <v>72</v>
       </c>
@@ -44132,9 +43949,6 @@
       <c r="I101" t="s">
         <v>649</v>
       </c>
-      <c r="J101" t="s">
-        <v>645</v>
-      </c>
       <c r="K101" t="s">
         <v>72</v>
       </c>
@@ -44245,9 +44059,6 @@
       <c r="I102" t="s">
         <v>653</v>
       </c>
-      <c r="J102" t="s">
-        <v>654</v>
-      </c>
       <c r="K102" t="s">
         <v>72</v>
       </c>
@@ -44358,9 +44169,6 @@
       <c r="I103" t="s">
         <v>656</v>
       </c>
-      <c r="J103" t="s">
-        <v>654</v>
-      </c>
       <c r="K103" t="s">
         <v>72</v>
       </c>
@@ -44471,9 +44279,6 @@
       <c r="I104" t="s">
         <v>658</v>
       </c>
-      <c r="J104" t="s">
-        <v>654</v>
-      </c>
       <c r="K104" t="s">
         <v>72</v>
       </c>
@@ -44584,9 +44389,6 @@
       <c r="I105" t="s">
         <v>662</v>
       </c>
-      <c r="J105" t="s">
-        <v>663</v>
-      </c>
       <c r="K105" t="s">
         <v>72</v>
       </c>
@@ -44697,9 +44499,6 @@
       <c r="I106" t="s">
         <v>665</v>
       </c>
-      <c r="J106" t="s">
-        <v>663</v>
-      </c>
       <c r="K106" t="s">
         <v>72</v>
       </c>
@@ -44810,9 +44609,6 @@
       <c r="I107" t="s">
         <v>669</v>
       </c>
-      <c r="J107" t="s">
-        <v>670</v>
-      </c>
       <c r="K107" t="s">
         <v>72</v>
       </c>
@@ -44923,9 +44719,6 @@
       <c r="I108" t="s">
         <v>672</v>
       </c>
-      <c r="J108" t="s">
-        <v>670</v>
-      </c>
       <c r="K108" t="s">
         <v>72</v>
       </c>
@@ -45036,9 +44829,6 @@
       <c r="I109" t="s">
         <v>674</v>
       </c>
-      <c r="J109" t="s">
-        <v>670</v>
-      </c>
       <c r="K109" t="s">
         <v>72</v>
       </c>
@@ -45149,9 +44939,6 @@
       <c r="I110" t="s">
         <v>676</v>
       </c>
-      <c r="J110" t="s">
-        <v>670</v>
-      </c>
       <c r="K110" t="s">
         <v>72</v>
       </c>
@@ -45262,9 +45049,6 @@
       <c r="I111" t="s">
         <v>680</v>
       </c>
-      <c r="J111" t="s">
-        <v>670</v>
-      </c>
       <c r="K111" t="s">
         <v>72</v>
       </c>
@@ -45375,9 +45159,6 @@
       <c r="I112" t="s">
         <v>682</v>
       </c>
-      <c r="J112" t="s">
-        <v>670</v>
-      </c>
       <c r="K112" t="s">
         <v>72</v>
       </c>
@@ -45488,9 +45269,6 @@
       <c r="I113" t="s">
         <v>684</v>
       </c>
-      <c r="J113" t="s">
-        <v>670</v>
-      </c>
       <c r="K113" t="s">
         <v>72</v>
       </c>
@@ -45601,9 +45379,6 @@
       <c r="I114" t="s">
         <v>686</v>
       </c>
-      <c r="J114" t="s">
-        <v>136</v>
-      </c>
       <c r="K114" t="s">
         <v>72</v>
       </c>
@@ -45714,9 +45489,6 @@
       <c r="I115" t="s">
         <v>688</v>
       </c>
-      <c r="J115" t="s">
-        <v>136</v>
-      </c>
       <c r="K115" t="s">
         <v>72</v>
       </c>
@@ -45827,9 +45599,6 @@
       <c r="I116" t="s">
         <v>690</v>
       </c>
-      <c r="J116" t="s">
-        <v>136</v>
-      </c>
       <c r="K116" t="s">
         <v>72</v>
       </c>
@@ -45940,9 +45709,6 @@
       <c r="I117" t="s">
         <v>692</v>
       </c>
-      <c r="J117" t="s">
-        <v>95</v>
-      </c>
       <c r="K117" t="s">
         <v>72</v>
       </c>
@@ -46053,9 +45819,6 @@
       <c r="I118" t="s">
         <v>694</v>
       </c>
-      <c r="J118" t="s">
-        <v>95</v>
-      </c>
       <c r="K118" t="s">
         <v>72</v>
       </c>
@@ -46166,9 +45929,6 @@
       <c r="I119" t="s">
         <v>696</v>
       </c>
-      <c r="J119" t="s">
-        <v>95</v>
-      </c>
       <c r="K119" t="s">
         <v>72</v>
       </c>
@@ -46279,9 +46039,6 @@
       <c r="I120" t="s">
         <v>698</v>
       </c>
-      <c r="J120" t="s">
-        <v>95</v>
-      </c>
       <c r="K120" t="s">
         <v>72</v>
       </c>
@@ -46392,9 +46149,6 @@
       <c r="I121" t="s">
         <v>702</v>
       </c>
-      <c r="J121" t="s">
-        <v>703</v>
-      </c>
       <c r="K121" t="s">
         <v>72</v>
       </c>
@@ -46505,9 +46259,6 @@
       <c r="I122" t="s">
         <v>705</v>
       </c>
-      <c r="J122" t="s">
-        <v>703</v>
-      </c>
       <c r="K122" t="s">
         <v>72</v>
       </c>
@@ -46618,9 +46369,6 @@
       <c r="I123" t="s">
         <v>707</v>
       </c>
-      <c r="J123" t="s">
-        <v>703</v>
-      </c>
       <c r="K123" t="s">
         <v>72</v>
       </c>
@@ -46731,9 +46479,6 @@
       <c r="I124" t="s">
         <v>711</v>
       </c>
-      <c r="J124" t="s">
-        <v>712</v>
-      </c>
       <c r="K124" t="s">
         <v>72</v>
       </c>
@@ -46844,9 +46589,6 @@
       <c r="I125" t="s">
         <v>714</v>
       </c>
-      <c r="J125" t="s">
-        <v>712</v>
-      </c>
       <c r="K125" t="s">
         <v>72</v>
       </c>
@@ -46957,9 +46699,6 @@
       <c r="I126" t="s">
         <v>716</v>
       </c>
-      <c r="J126" t="s">
-        <v>712</v>
-      </c>
       <c r="K126" t="s">
         <v>72</v>
       </c>
@@ -47070,9 +46809,6 @@
       <c r="I127" t="s">
         <v>718</v>
       </c>
-      <c r="J127" t="s">
-        <v>712</v>
-      </c>
       <c r="K127" t="s">
         <v>72</v>
       </c>
@@ -47183,9 +46919,6 @@
       <c r="I128" t="s">
         <v>720</v>
       </c>
-      <c r="J128" t="s">
-        <v>145</v>
-      </c>
       <c r="K128" t="s">
         <v>72</v>
       </c>
@@ -47296,9 +47029,6 @@
       <c r="I129" t="s">
         <v>722</v>
       </c>
-      <c r="J129" t="s">
-        <v>145</v>
-      </c>
       <c r="K129" t="s">
         <v>72</v>
       </c>
@@ -47409,9 +47139,6 @@
       <c r="I130" t="s">
         <v>724</v>
       </c>
-      <c r="J130" t="s">
-        <v>145</v>
-      </c>
       <c r="K130" t="s">
         <v>72</v>
       </c>
@@ -47522,9 +47249,6 @@
       <c r="I131" t="s">
         <v>726</v>
       </c>
-      <c r="J131" t="s">
-        <v>153</v>
-      </c>
       <c r="K131" t="s">
         <v>72</v>
       </c>
@@ -47635,9 +47359,6 @@
       <c r="I132" t="s">
         <v>728</v>
       </c>
-      <c r="J132" t="s">
-        <v>153</v>
-      </c>
       <c r="K132" t="s">
         <v>72</v>
       </c>
@@ -47748,9 +47469,6 @@
       <c r="I133" t="s">
         <v>730</v>
       </c>
-      <c r="J133" t="s">
-        <v>153</v>
-      </c>
       <c r="K133" t="s">
         <v>72</v>
       </c>
@@ -47861,9 +47579,6 @@
       <c r="I134" t="s">
         <v>732</v>
       </c>
-      <c r="J134" t="s">
-        <v>153</v>
-      </c>
       <c r="K134" t="s">
         <v>72</v>
       </c>
@@ -47974,9 +47689,6 @@
       <c r="I135" t="s">
         <v>734</v>
       </c>
-      <c r="J135" t="s">
-        <v>153</v>
-      </c>
       <c r="K135" t="s">
         <v>72</v>
       </c>
@@ -48087,9 +47799,6 @@
       <c r="I136" t="s">
         <v>736</v>
       </c>
-      <c r="J136" t="s">
-        <v>153</v>
-      </c>
       <c r="K136" t="s">
         <v>72</v>
       </c>
@@ -48200,9 +47909,6 @@
       <c r="I137" t="s">
         <v>738</v>
       </c>
-      <c r="J137" t="s">
-        <v>153</v>
-      </c>
       <c r="K137" t="s">
         <v>72</v>
       </c>
@@ -48313,9 +48019,6 @@
       <c r="I138" t="s">
         <v>742</v>
       </c>
-      <c r="J138" t="s">
-        <v>743</v>
-      </c>
       <c r="K138" t="s">
         <v>72</v>
       </c>
@@ -48426,9 +48129,6 @@
       <c r="I139" t="s">
         <v>745</v>
       </c>
-      <c r="J139" t="s">
-        <v>743</v>
-      </c>
       <c r="K139" t="s">
         <v>72</v>
       </c>
@@ -48539,9 +48239,6 @@
       <c r="I140" t="s">
         <v>747</v>
       </c>
-      <c r="J140" t="s">
-        <v>743</v>
-      </c>
       <c r="K140" t="s">
         <v>72</v>
       </c>
@@ -48652,9 +48349,6 @@
       <c r="I141" t="s">
         <v>749</v>
       </c>
-      <c r="J141" t="s">
-        <v>743</v>
-      </c>
       <c r="K141" t="s">
         <v>72</v>
       </c>
@@ -48765,9 +48459,6 @@
       <c r="I142" t="s">
         <v>751</v>
       </c>
-      <c r="J142" t="s">
-        <v>67</v>
-      </c>
       <c r="K142" t="s">
         <v>72</v>
       </c>
@@ -48878,9 +48569,6 @@
       <c r="I143" t="s">
         <v>755</v>
       </c>
-      <c r="J143" t="s">
-        <v>756</v>
-      </c>
       <c r="K143" t="s">
         <v>72</v>
       </c>
@@ -48991,9 +48679,6 @@
       <c r="I144" t="s">
         <v>758</v>
       </c>
-      <c r="J144" t="s">
-        <v>756</v>
-      </c>
       <c r="K144" t="s">
         <v>72</v>
       </c>
@@ -49104,9 +48789,6 @@
       <c r="I145" t="s">
         <v>760</v>
       </c>
-      <c r="J145" t="s">
-        <v>756</v>
-      </c>
       <c r="K145" t="s">
         <v>72</v>
       </c>
@@ -49217,9 +48899,6 @@
       <c r="I146" t="s">
         <v>762</v>
       </c>
-      <c r="J146" t="s">
-        <v>756</v>
-      </c>
       <c r="K146" t="s">
         <v>72</v>
       </c>
@@ -49330,9 +49009,6 @@
       <c r="I147" t="s">
         <v>764</v>
       </c>
-      <c r="J147" t="s">
-        <v>756</v>
-      </c>
       <c r="K147" t="s">
         <v>72</v>
       </c>
@@ -49443,9 +49119,6 @@
       <c r="I148" t="s">
         <v>766</v>
       </c>
-      <c r="J148" t="s">
-        <v>756</v>
-      </c>
       <c r="K148" t="s">
         <v>72</v>
       </c>
@@ -49556,9 +49229,6 @@
       <c r="I149" t="s">
         <v>768</v>
       </c>
-      <c r="J149" t="s">
-        <v>756</v>
-      </c>
       <c r="K149" t="s">
         <v>72</v>
       </c>
@@ -49669,9 +49339,6 @@
       <c r="I150" t="s">
         <v>770</v>
       </c>
-      <c r="J150" t="s">
-        <v>756</v>
-      </c>
       <c r="K150" t="s">
         <v>72</v>
       </c>
@@ -49782,9 +49449,6 @@
       <c r="I151" t="s">
         <v>772</v>
       </c>
-      <c r="J151" t="s">
-        <v>756</v>
-      </c>
       <c r="K151" t="s">
         <v>72</v>
       </c>
@@ -49895,9 +49559,6 @@
       <c r="I152" t="s">
         <v>774</v>
       </c>
-      <c r="J152" t="s">
-        <v>161</v>
-      </c>
       <c r="K152" t="s">
         <v>72</v>
       </c>
@@ -50008,9 +49669,6 @@
       <c r="I153" t="s">
         <v>776</v>
       </c>
-      <c r="J153" t="s">
-        <v>161</v>
-      </c>
       <c r="K153" t="s">
         <v>72</v>
       </c>
@@ -50121,9 +49779,6 @@
       <c r="I154" t="s">
         <v>778</v>
       </c>
-      <c r="J154" t="s">
-        <v>161</v>
-      </c>
       <c r="K154" t="s">
         <v>72</v>
       </c>
@@ -50234,9 +49889,6 @@
       <c r="I155" t="s">
         <v>782</v>
       </c>
-      <c r="J155" t="s">
-        <v>783</v>
-      </c>
       <c r="K155" t="s">
         <v>72</v>
       </c>
@@ -50347,9 +49999,6 @@
       <c r="I156" t="s">
         <v>785</v>
       </c>
-      <c r="J156" t="s">
-        <v>783</v>
-      </c>
       <c r="K156" t="s">
         <v>72</v>
       </c>
@@ -50460,9 +50109,6 @@
       <c r="I157" t="s">
         <v>787</v>
       </c>
-      <c r="J157" t="s">
-        <v>783</v>
-      </c>
       <c r="K157" t="s">
         <v>72</v>
       </c>
@@ -50573,9 +50219,6 @@
       <c r="I158" t="s">
         <v>789</v>
       </c>
-      <c r="J158" t="s">
-        <v>783</v>
-      </c>
       <c r="K158" t="s">
         <v>72</v>
       </c>
@@ -50686,9 +50329,6 @@
       <c r="I159" t="s">
         <v>791</v>
       </c>
-      <c r="J159" t="s">
-        <v>783</v>
-      </c>
       <c r="K159" t="s">
         <v>72</v>
       </c>
@@ -50799,9 +50439,6 @@
       <c r="I160" t="s">
         <v>795</v>
       </c>
-      <c r="J160" t="s">
-        <v>796</v>
-      </c>
       <c r="K160" t="s">
         <v>72</v>
       </c>
@@ -50912,9 +50549,6 @@
       <c r="I161" t="s">
         <v>798</v>
       </c>
-      <c r="J161" t="s">
-        <v>796</v>
-      </c>
       <c r="K161" t="s">
         <v>72</v>
       </c>
@@ -51025,9 +50659,6 @@
       <c r="I162" t="s">
         <v>800</v>
       </c>
-      <c r="J162" t="s">
-        <v>796</v>
-      </c>
       <c r="K162" t="s">
         <v>72</v>
       </c>
@@ -51138,9 +50769,6 @@
       <c r="I163" t="s">
         <v>802</v>
       </c>
-      <c r="J163" t="s">
-        <v>796</v>
-      </c>
       <c r="K163" t="s">
         <v>72</v>
       </c>
@@ -51251,9 +50879,6 @@
       <c r="I164" t="s">
         <v>804</v>
       </c>
-      <c r="J164" t="s">
-        <v>796</v>
-      </c>
       <c r="K164" t="s">
         <v>72</v>
       </c>
@@ -51364,9 +50989,6 @@
       <c r="I165" t="s">
         <v>806</v>
       </c>
-      <c r="J165" t="s">
-        <v>178</v>
-      </c>
       <c r="K165" t="s">
         <v>72</v>
       </c>
@@ -51477,9 +51099,6 @@
       <c r="I166" t="s">
         <v>808</v>
       </c>
-      <c r="J166" t="s">
-        <v>178</v>
-      </c>
       <c r="K166" t="s">
         <v>72</v>
       </c>
@@ -51590,9 +51209,6 @@
       <c r="I167" t="s">
         <v>810</v>
       </c>
-      <c r="J167" t="s">
-        <v>178</v>
-      </c>
       <c r="K167" t="s">
         <v>72</v>
       </c>
@@ -51703,9 +51319,6 @@
       <c r="I168" t="s">
         <v>812</v>
       </c>
-      <c r="J168" t="s">
-        <v>178</v>
-      </c>
       <c r="K168" t="s">
         <v>72</v>
       </c>
@@ -51816,9 +51429,6 @@
       <c r="I169" t="s">
         <v>814</v>
       </c>
-      <c r="J169" t="s">
-        <v>169</v>
-      </c>
       <c r="K169" t="s">
         <v>72</v>
       </c>
@@ -51929,9 +51539,6 @@
       <c r="I170" t="s">
         <v>816</v>
       </c>
-      <c r="J170" t="s">
-        <v>169</v>
-      </c>
       <c r="K170" t="s">
         <v>72</v>
       </c>
@@ -52042,9 +51649,6 @@
       <c r="I171" t="s">
         <v>818</v>
       </c>
-      <c r="J171" t="s">
-        <v>169</v>
-      </c>
       <c r="K171" t="s">
         <v>72</v>
       </c>
@@ -52155,9 +51759,6 @@
       <c r="I172" t="s">
         <v>820</v>
       </c>
-      <c r="J172" t="s">
-        <v>169</v>
-      </c>
       <c r="K172" t="s">
         <v>72</v>
       </c>
@@ -52268,9 +51869,6 @@
       <c r="I173" t="s">
         <v>822</v>
       </c>
-      <c r="J173" t="s">
-        <v>169</v>
-      </c>
       <c r="K173" t="s">
         <v>72</v>
       </c>
@@ -52381,9 +51979,6 @@
       <c r="I174" t="s">
         <v>824</v>
       </c>
-      <c r="J174" t="s">
-        <v>169</v>
-      </c>
       <c r="K174" t="s">
         <v>72</v>
       </c>
@@ -52494,9 +52089,6 @@
       <c r="I175" t="s">
         <v>828</v>
       </c>
-      <c r="J175" t="s">
-        <v>829</v>
-      </c>
       <c r="K175" t="s">
         <v>72</v>
       </c>
@@ -52607,9 +52199,6 @@
       <c r="I176" t="s">
         <v>831</v>
       </c>
-      <c r="J176" t="s">
-        <v>829</v>
-      </c>
       <c r="K176" t="s">
         <v>72</v>
       </c>
@@ -52720,9 +52309,6 @@
       <c r="I177" t="s">
         <v>833</v>
       </c>
-      <c r="J177" t="s">
-        <v>397</v>
-      </c>
       <c r="K177" t="s">
         <v>72</v>
       </c>
@@ -52833,9 +52419,6 @@
       <c r="I178" t="s">
         <v>835</v>
       </c>
-      <c r="J178" t="s">
-        <v>397</v>
-      </c>
       <c r="K178" t="s">
         <v>72</v>
       </c>
@@ -52946,9 +52529,6 @@
       <c r="I179" t="s">
         <v>839</v>
       </c>
-      <c r="J179" t="s">
-        <v>840</v>
-      </c>
       <c r="K179" t="s">
         <v>72</v>
       </c>
@@ -53059,9 +52639,6 @@
       <c r="I180" t="s">
         <v>842</v>
       </c>
-      <c r="J180" t="s">
-        <v>840</v>
-      </c>
       <c r="K180" t="s">
         <v>72</v>
       </c>
@@ -53172,9 +52749,6 @@
       <c r="I181" t="s">
         <v>844</v>
       </c>
-      <c r="J181" t="s">
-        <v>840</v>
-      </c>
       <c r="K181" t="s">
         <v>72</v>
       </c>
@@ -53285,9 +52859,6 @@
       <c r="I182" t="s">
         <v>846</v>
       </c>
-      <c r="J182" t="s">
-        <v>840</v>
-      </c>
       <c r="K182" t="s">
         <v>72</v>
       </c>
@@ -53398,9 +52969,6 @@
       <c r="I183" t="s">
         <v>850</v>
       </c>
-      <c r="J183" t="s">
-        <v>851</v>
-      </c>
       <c r="K183" t="s">
         <v>72</v>
       </c>
@@ -53511,9 +53079,6 @@
       <c r="I184" t="s">
         <v>853</v>
       </c>
-      <c r="J184" t="s">
-        <v>851</v>
-      </c>
       <c r="K184" t="s">
         <v>72</v>
       </c>
@@ -53624,9 +53189,6 @@
       <c r="I185" t="s">
         <v>857</v>
       </c>
-      <c r="J185" t="s">
-        <v>858</v>
-      </c>
       <c r="K185" t="s">
         <v>72</v>
       </c>
@@ -53737,9 +53299,6 @@
       <c r="I186" t="s">
         <v>860</v>
       </c>
-      <c r="J186" t="s">
-        <v>858</v>
-      </c>
       <c r="K186" t="s">
         <v>72</v>
       </c>
@@ -53850,9 +53409,6 @@
       <c r="I187" t="s">
         <v>862</v>
       </c>
-      <c r="J187" t="s">
-        <v>858</v>
-      </c>
       <c r="K187" t="s">
         <v>72</v>
       </c>
@@ -53963,9 +53519,6 @@
       <c r="I188" t="s">
         <v>864</v>
       </c>
-      <c r="J188" t="s">
-        <v>407</v>
-      </c>
       <c r="K188" t="s">
         <v>72</v>
       </c>
@@ -54076,9 +53629,6 @@
       <c r="I189" t="s">
         <v>866</v>
       </c>
-      <c r="J189" t="s">
-        <v>407</v>
-      </c>
       <c r="K189" t="s">
         <v>72</v>
       </c>
@@ -54189,9 +53739,6 @@
       <c r="I190" t="s">
         <v>868</v>
       </c>
-      <c r="J190" t="s">
-        <v>407</v>
-      </c>
       <c r="K190" t="s">
         <v>72</v>
       </c>
@@ -54302,9 +53849,6 @@
       <c r="I191" t="s">
         <v>872</v>
       </c>
-      <c r="J191" t="s">
-        <v>873</v>
-      </c>
       <c r="K191" t="s">
         <v>72</v>
       </c>
@@ -54415,9 +53959,6 @@
       <c r="I192" t="s">
         <v>875</v>
       </c>
-      <c r="J192" t="s">
-        <v>873</v>
-      </c>
       <c r="K192" t="s">
         <v>72</v>
       </c>
@@ -54528,9 +54069,6 @@
       <c r="I193" t="s">
         <v>877</v>
       </c>
-      <c r="J193" t="s">
-        <v>873</v>
-      </c>
       <c r="K193" t="s">
         <v>72</v>
       </c>
@@ -54641,9 +54179,6 @@
       <c r="I194" t="s">
         <v>879</v>
       </c>
-      <c r="J194" t="s">
-        <v>873</v>
-      </c>
       <c r="K194" t="s">
         <v>72</v>
       </c>
@@ -54754,9 +54289,6 @@
       <c r="I195" t="s">
         <v>881</v>
       </c>
-      <c r="J195" t="s">
-        <v>873</v>
-      </c>
       <c r="K195" t="s">
         <v>72</v>
       </c>
@@ -54867,9 +54399,6 @@
       <c r="I196" t="s">
         <v>883</v>
       </c>
-      <c r="J196" t="s">
-        <v>873</v>
-      </c>
       <c r="K196" t="s">
         <v>72</v>
       </c>
@@ -54980,9 +54509,6 @@
       <c r="I197" t="s">
         <v>885</v>
       </c>
-      <c r="J197" t="s">
-        <v>873</v>
-      </c>
       <c r="K197" t="s">
         <v>72</v>
       </c>
@@ -55093,9 +54619,6 @@
       <c r="I198" t="s">
         <v>887</v>
       </c>
-      <c r="J198" t="s">
-        <v>873</v>
-      </c>
       <c r="K198" t="s">
         <v>72</v>
       </c>
@@ -55206,9 +54729,6 @@
       <c r="I199" t="s">
         <v>889</v>
       </c>
-      <c r="J199" t="s">
-        <v>873</v>
-      </c>
       <c r="K199" t="s">
         <v>72</v>
       </c>
@@ -55319,9 +54839,6 @@
       <c r="I200" t="s">
         <v>891</v>
       </c>
-      <c r="J200" t="s">
-        <v>420</v>
-      </c>
       <c r="K200" t="s">
         <v>72</v>
       </c>
@@ -55432,9 +54949,6 @@
       <c r="I201" t="s">
         <v>893</v>
       </c>
-      <c r="J201" t="s">
-        <v>420</v>
-      </c>
       <c r="K201" t="s">
         <v>72</v>
       </c>
@@ -55545,9 +55059,6 @@
       <c r="I202" t="s">
         <v>897</v>
       </c>
-      <c r="J202" t="s">
-        <v>898</v>
-      </c>
       <c r="K202" t="s">
         <v>72</v>
       </c>
@@ -55658,9 +55169,6 @@
       <c r="I203" t="s">
         <v>900</v>
       </c>
-      <c r="J203" t="s">
-        <v>898</v>
-      </c>
       <c r="K203" t="s">
         <v>72</v>
       </c>
@@ -55771,9 +55279,6 @@
       <c r="I204" t="s">
         <v>902</v>
       </c>
-      <c r="J204" t="s">
-        <v>898</v>
-      </c>
       <c r="K204" t="s">
         <v>72</v>
       </c>
@@ -55884,9 +55389,6 @@
       <c r="I205" t="s">
         <v>904</v>
       </c>
-      <c r="J205" t="s">
-        <v>898</v>
-      </c>
       <c r="K205" t="s">
         <v>72</v>
       </c>
@@ -55997,9 +55499,6 @@
       <c r="I206" t="s">
         <v>906</v>
       </c>
-      <c r="J206" t="s">
-        <v>898</v>
-      </c>
       <c r="K206" t="s">
         <v>72</v>
       </c>
@@ -56110,9 +55609,6 @@
       <c r="I207" t="s">
         <v>908</v>
       </c>
-      <c r="J207" t="s">
-        <v>898</v>
-      </c>
       <c r="K207" t="s">
         <v>72</v>
       </c>
@@ -56223,9 +55719,6 @@
       <c r="I208" t="s">
         <v>912</v>
       </c>
-      <c r="J208" t="s">
-        <v>913</v>
-      </c>
       <c r="K208" t="s">
         <v>72</v>
       </c>
@@ -56336,9 +55829,6 @@
       <c r="I209" t="s">
         <v>915</v>
       </c>
-      <c r="J209" t="s">
-        <v>913</v>
-      </c>
       <c r="K209" t="s">
         <v>72</v>
       </c>
@@ -56449,9 +55939,6 @@
       <c r="I210" t="s">
         <v>917</v>
       </c>
-      <c r="J210" t="s">
-        <v>913</v>
-      </c>
       <c r="K210" t="s">
         <v>72</v>
       </c>
@@ -56562,9 +56049,6 @@
       <c r="I211" t="s">
         <v>921</v>
       </c>
-      <c r="J211" t="s">
-        <v>922</v>
-      </c>
       <c r="K211" t="s">
         <v>72</v>
       </c>
@@ -56675,9 +56159,6 @@
       <c r="I212" t="s">
         <v>924</v>
       </c>
-      <c r="J212" t="s">
-        <v>922</v>
-      </c>
       <c r="K212" t="s">
         <v>72</v>
       </c>
@@ -56788,9 +56269,6 @@
       <c r="I213" t="s">
         <v>926</v>
       </c>
-      <c r="J213" t="s">
-        <v>922</v>
-      </c>
       <c r="K213" t="s">
         <v>72</v>
       </c>
@@ -56901,9 +56379,6 @@
       <c r="I214" t="s">
         <v>928</v>
       </c>
-      <c r="J214" t="s">
-        <v>922</v>
-      </c>
       <c r="K214" t="s">
         <v>72</v>
       </c>
@@ -57014,9 +56489,6 @@
       <c r="I215" t="s">
         <v>930</v>
       </c>
-      <c r="J215" t="s">
-        <v>922</v>
-      </c>
       <c r="K215" t="s">
         <v>72</v>
       </c>
@@ -57127,9 +56599,6 @@
       <c r="I216" t="s">
         <v>932</v>
       </c>
-      <c r="J216" t="s">
-        <v>285</v>
-      </c>
       <c r="K216" t="s">
         <v>72</v>
       </c>
@@ -57240,9 +56709,6 @@
       <c r="I217" t="s">
         <v>934</v>
       </c>
-      <c r="J217" t="s">
-        <v>285</v>
-      </c>
       <c r="K217" t="s">
         <v>72</v>
       </c>
@@ -57353,9 +56819,6 @@
       <c r="I218" t="s">
         <v>936</v>
       </c>
-      <c r="J218" t="s">
-        <v>285</v>
-      </c>
       <c r="K218" t="s">
         <v>72</v>
       </c>
@@ -57466,9 +56929,6 @@
       <c r="I219" t="s">
         <v>938</v>
       </c>
-      <c r="J219" t="s">
-        <v>285</v>
-      </c>
       <c r="K219" t="s">
         <v>72</v>
       </c>
@@ -57579,9 +57039,6 @@
       <c r="I220" t="s">
         <v>940</v>
       </c>
-      <c r="J220" t="s">
-        <v>285</v>
-      </c>
       <c r="K220" t="s">
         <v>72</v>
       </c>
@@ -57692,9 +57149,6 @@
       <c r="I221" t="s">
         <v>944</v>
       </c>
-      <c r="J221" t="s">
-        <v>945</v>
-      </c>
       <c r="K221" t="s">
         <v>72</v>
       </c>
@@ -57805,9 +57259,6 @@
       <c r="I222" t="s">
         <v>947</v>
       </c>
-      <c r="J222" t="s">
-        <v>945</v>
-      </c>
       <c r="K222" t="s">
         <v>72</v>
       </c>
@@ -57918,9 +57369,6 @@
       <c r="I223" t="s">
         <v>949</v>
       </c>
-      <c r="J223" t="s">
-        <v>945</v>
-      </c>
       <c r="K223" t="s">
         <v>72</v>
       </c>
@@ -58031,9 +57479,6 @@
       <c r="I224" t="s">
         <v>953</v>
       </c>
-      <c r="J224" t="s">
-        <v>954</v>
-      </c>
       <c r="K224" t="s">
         <v>72</v>
       </c>
@@ -58144,9 +57589,6 @@
       <c r="I225" t="s">
         <v>956</v>
       </c>
-      <c r="J225" t="s">
-        <v>954</v>
-      </c>
       <c r="K225" t="s">
         <v>72</v>
       </c>
@@ -58257,9 +57699,6 @@
       <c r="I226" t="s">
         <v>958</v>
       </c>
-      <c r="J226" t="s">
-        <v>954</v>
-      </c>
       <c r="K226" t="s">
         <v>72</v>
       </c>
@@ -58370,9 +57809,6 @@
       <c r="I227" t="s">
         <v>962</v>
       </c>
-      <c r="J227" t="s">
-        <v>963</v>
-      </c>
       <c r="K227" t="s">
         <v>72</v>
       </c>
@@ -58483,9 +57919,6 @@
       <c r="I228" t="s">
         <v>965</v>
       </c>
-      <c r="J228" t="s">
-        <v>963</v>
-      </c>
       <c r="K228" t="s">
         <v>72</v>
       </c>
@@ -58596,9 +58029,6 @@
       <c r="I229" t="s">
         <v>967</v>
       </c>
-      <c r="J229" t="s">
-        <v>963</v>
-      </c>
       <c r="K229" t="s">
         <v>72</v>
       </c>
@@ -58709,9 +58139,6 @@
       <c r="I230" t="s">
         <v>971</v>
       </c>
-      <c r="J230" t="s">
-        <v>972</v>
-      </c>
       <c r="K230" t="s">
         <v>72</v>
       </c>
@@ -58822,9 +58249,6 @@
       <c r="I231" t="s">
         <v>974</v>
       </c>
-      <c r="J231" t="s">
-        <v>972</v>
-      </c>
       <c r="K231" t="s">
         <v>72</v>
       </c>
@@ -58935,9 +58359,6 @@
       <c r="I232" t="s">
         <v>978</v>
       </c>
-      <c r="J232" t="s">
-        <v>979</v>
-      </c>
       <c r="K232" t="s">
         <v>72</v>
       </c>
@@ -59048,9 +58469,6 @@
       <c r="I233" t="s">
         <v>981</v>
       </c>
-      <c r="J233" t="s">
-        <v>979</v>
-      </c>
       <c r="K233" t="s">
         <v>72</v>
       </c>
@@ -59161,9 +58579,6 @@
       <c r="I234" t="s">
         <v>983</v>
       </c>
-      <c r="J234" t="s">
-        <v>979</v>
-      </c>
       <c r="K234" t="s">
         <v>72</v>
       </c>
@@ -59274,9 +58689,6 @@
       <c r="I235" t="s">
         <v>985</v>
       </c>
-      <c r="J235" t="s">
-        <v>979</v>
-      </c>
       <c r="K235" t="s">
         <v>72</v>
       </c>
@@ -59387,9 +58799,6 @@
       <c r="I236" t="s">
         <v>987</v>
       </c>
-      <c r="J236" t="s">
-        <v>979</v>
-      </c>
       <c r="K236" t="s">
         <v>72</v>
       </c>
@@ -59500,9 +58909,6 @@
       <c r="I237" t="s">
         <v>989</v>
       </c>
-      <c r="J237" t="s">
-        <v>193</v>
-      </c>
       <c r="K237" t="s">
         <v>72</v>
       </c>
@@ -59613,9 +59019,6 @@
       <c r="I238" t="s">
         <v>991</v>
       </c>
-      <c r="J238" t="s">
-        <v>193</v>
-      </c>
       <c r="K238" t="s">
         <v>72</v>
       </c>
@@ -59726,9 +59129,6 @@
       <c r="I239" t="s">
         <v>993</v>
       </c>
-      <c r="J239" t="s">
-        <v>193</v>
-      </c>
       <c r="K239" t="s">
         <v>72</v>
       </c>
@@ -59839,9 +59239,6 @@
       <c r="I240" t="s">
         <v>995</v>
       </c>
-      <c r="J240" t="s">
-        <v>460</v>
-      </c>
       <c r="K240" t="s">
         <v>72</v>
       </c>
@@ -59952,9 +59349,6 @@
       <c r="I241" t="s">
         <v>999</v>
       </c>
-      <c r="J241" t="s">
-        <v>1000</v>
-      </c>
       <c r="K241" t="s">
         <v>72</v>
       </c>
@@ -60065,9 +59459,6 @@
       <c r="I242" t="s">
         <v>1004</v>
       </c>
-      <c r="J242" t="s">
-        <v>1005</v>
-      </c>
       <c r="K242" t="s">
         <v>72</v>
       </c>
@@ -60178,9 +59569,6 @@
       <c r="I243" t="s">
         <v>1009</v>
       </c>
-      <c r="J243" t="s">
-        <v>1010</v>
-      </c>
       <c r="K243" t="s">
         <v>72</v>
       </c>
@@ -60291,9 +59679,6 @@
       <c r="I244" t="s">
         <v>1012</v>
       </c>
-      <c r="J244" t="s">
-        <v>1010</v>
-      </c>
       <c r="K244" t="s">
         <v>72</v>
       </c>
@@ -60404,9 +59789,6 @@
       <c r="I245" t="s">
         <v>1014</v>
       </c>
-      <c r="J245" t="s">
-        <v>1010</v>
-      </c>
       <c r="K245" t="s">
         <v>72</v>
       </c>
@@ -60517,9 +59899,6 @@
       <c r="I246" t="s">
         <v>1016</v>
       </c>
-      <c r="J246" t="s">
-        <v>1010</v>
-      </c>
       <c r="K246" t="s">
         <v>72</v>
       </c>
@@ -60630,9 +60009,6 @@
       <c r="I247" t="s">
         <v>1018</v>
       </c>
-      <c r="J247" t="s">
-        <v>472</v>
-      </c>
       <c r="K247" t="s">
         <v>72</v>
       </c>
@@ -60743,9 +60119,6 @@
       <c r="I248" t="s">
         <v>1022</v>
       </c>
-      <c r="J248" t="s">
-        <v>1023</v>
-      </c>
       <c r="K248" t="s">
         <v>72</v>
       </c>
@@ -60856,9 +60229,6 @@
       <c r="I249" t="s">
         <v>1025</v>
       </c>
-      <c r="J249" t="s">
-        <v>1023</v>
-      </c>
       <c r="K249" t="s">
         <v>72</v>
       </c>
@@ -60969,9 +60339,6 @@
       <c r="I250" t="s">
         <v>1027</v>
       </c>
-      <c r="J250" t="s">
-        <v>1023</v>
-      </c>
       <c r="K250" t="s">
         <v>72</v>
       </c>
@@ -61082,9 +60449,6 @@
       <c r="I251" t="s">
         <v>1029</v>
       </c>
-      <c r="J251" t="s">
-        <v>1023</v>
-      </c>
       <c r="K251" t="s">
         <v>72</v>
       </c>
@@ -61195,9 +60559,6 @@
       <c r="I252" t="s">
         <v>1033</v>
       </c>
-      <c r="J252" t="s">
-        <v>1034</v>
-      </c>
       <c r="K252" t="s">
         <v>72</v>
       </c>
@@ -61308,9 +60669,6 @@
       <c r="I253" t="s">
         <v>1036</v>
       </c>
-      <c r="J253" t="s">
-        <v>1034</v>
-      </c>
       <c r="K253" t="s">
         <v>72</v>
       </c>
@@ -61421,9 +60779,6 @@
       <c r="I254" t="s">
         <v>1038</v>
       </c>
-      <c r="J254" t="s">
-        <v>1034</v>
-      </c>
       <c r="K254" t="s">
         <v>72</v>
       </c>
@@ -61534,9 +60889,6 @@
       <c r="I255" t="s">
         <v>1042</v>
       </c>
-      <c r="J255" t="s">
-        <v>1043</v>
-      </c>
       <c r="K255" t="s">
         <v>72</v>
       </c>
@@ -61647,9 +60999,6 @@
       <c r="I256" t="s">
         <v>1045</v>
       </c>
-      <c r="J256" t="s">
-        <v>1043</v>
-      </c>
       <c r="K256" t="s">
         <v>72</v>
       </c>
@@ -61760,9 +61109,6 @@
       <c r="I257" t="s">
         <v>1047</v>
       </c>
-      <c r="J257" t="s">
-        <v>1043</v>
-      </c>
       <c r="K257" t="s">
         <v>72</v>
       </c>
@@ -61873,9 +61219,6 @@
       <c r="I258" t="s">
         <v>1049</v>
       </c>
-      <c r="J258" t="s">
-        <v>1043</v>
-      </c>
       <c r="K258" t="s">
         <v>72</v>
       </c>
@@ -61986,9 +61329,6 @@
       <c r="I259" t="s">
         <v>1053</v>
       </c>
-      <c r="J259" t="s">
-        <v>1054</v>
-      </c>
       <c r="K259" t="s">
         <v>72</v>
       </c>
@@ -62099,9 +61439,6 @@
       <c r="I260" t="s">
         <v>1056</v>
       </c>
-      <c r="J260" t="s">
-        <v>1054</v>
-      </c>
       <c r="K260" t="s">
         <v>72</v>
       </c>
@@ -62212,9 +61549,6 @@
       <c r="I261" t="s">
         <v>1058</v>
       </c>
-      <c r="J261" t="s">
-        <v>1054</v>
-      </c>
       <c r="K261" t="s">
         <v>72</v>
       </c>
@@ -62325,9 +61659,6 @@
       <c r="I262" t="s">
         <v>1060</v>
       </c>
-      <c r="J262" t="s">
-        <v>208</v>
-      </c>
       <c r="K262" t="s">
         <v>72</v>
       </c>
@@ -62438,9 +61769,6 @@
       <c r="I263" t="s">
         <v>1062</v>
       </c>
-      <c r="J263" t="s">
-        <v>208</v>
-      </c>
       <c r="K263" t="s">
         <v>72</v>
       </c>
@@ -62551,9 +61879,6 @@
       <c r="I264" t="s">
         <v>1064</v>
       </c>
-      <c r="J264" t="s">
-        <v>208</v>
-      </c>
       <c r="K264" t="s">
         <v>72</v>
       </c>
@@ -62664,9 +61989,6 @@
       <c r="I265" t="s">
         <v>1066</v>
       </c>
-      <c r="J265" t="s">
-        <v>208</v>
-      </c>
       <c r="K265" t="s">
         <v>72</v>
       </c>
@@ -62777,9 +62099,6 @@
       <c r="I266" t="s">
         <v>1070</v>
       </c>
-      <c r="J266" t="s">
-        <v>1071</v>
-      </c>
       <c r="K266" t="s">
         <v>72</v>
       </c>
@@ -62890,9 +62209,6 @@
       <c r="I267" t="s">
         <v>1073</v>
       </c>
-      <c r="J267" t="s">
-        <v>1071</v>
-      </c>
       <c r="K267" t="s">
         <v>72</v>
       </c>
@@ -63003,9 +62319,6 @@
       <c r="I268" t="s">
         <v>1075</v>
       </c>
-      <c r="J268" t="s">
-        <v>1071</v>
-      </c>
       <c r="K268" t="s">
         <v>72</v>
       </c>
@@ -63116,9 +62429,6 @@
       <c r="I269" t="s">
         <v>1077</v>
       </c>
-      <c r="J269" t="s">
-        <v>1071</v>
-      </c>
       <c r="K269" t="s">
         <v>72</v>
       </c>
@@ -63229,9 +62539,6 @@
       <c r="I270" t="s">
         <v>1079</v>
       </c>
-      <c r="J270" t="s">
-        <v>297</v>
-      </c>
       <c r="K270" t="s">
         <v>72</v>
       </c>
@@ -63342,9 +62649,6 @@
       <c r="I271" t="s">
         <v>1081</v>
       </c>
-      <c r="J271" t="s">
-        <v>297</v>
-      </c>
       <c r="K271" t="s">
         <v>72</v>
       </c>
@@ -63455,9 +62759,6 @@
       <c r="I272" t="s">
         <v>1083</v>
       </c>
-      <c r="J272" t="s">
-        <v>297</v>
-      </c>
       <c r="K272" t="s">
         <v>72</v>
       </c>
@@ -63568,9 +62869,6 @@
       <c r="I273" t="s">
         <v>1085</v>
       </c>
-      <c r="J273" t="s">
-        <v>297</v>
-      </c>
       <c r="K273" t="s">
         <v>72</v>
       </c>
@@ -63681,9 +62979,6 @@
       <c r="I274" t="s">
         <v>1089</v>
       </c>
-      <c r="J274" t="s">
-        <v>1090</v>
-      </c>
       <c r="K274" t="s">
         <v>72</v>
       </c>
@@ -63794,9 +63089,6 @@
       <c r="I275" t="s">
         <v>1092</v>
       </c>
-      <c r="J275" t="s">
-        <v>1090</v>
-      </c>
       <c r="K275" t="s">
         <v>72</v>
       </c>
@@ -63907,9 +63199,6 @@
       <c r="I276" t="s">
         <v>1094</v>
       </c>
-      <c r="J276" t="s">
-        <v>1090</v>
-      </c>
       <c r="K276" t="s">
         <v>72</v>
       </c>
@@ -64020,9 +63309,6 @@
       <c r="I277" t="s">
         <v>1096</v>
       </c>
-      <c r="J277" t="s">
-        <v>1090</v>
-      </c>
       <c r="K277" t="s">
         <v>72</v>
       </c>
@@ -64133,9 +63419,6 @@
       <c r="I278" t="s">
         <v>1098</v>
       </c>
-      <c r="J278" t="s">
-        <v>481</v>
-      </c>
       <c r="K278" t="s">
         <v>72</v>
       </c>
@@ -64246,9 +63529,6 @@
       <c r="I279" t="s">
         <v>1102</v>
       </c>
-      <c r="J279" t="s">
-        <v>1103</v>
-      </c>
       <c r="K279" t="s">
         <v>72</v>
       </c>
@@ -64359,9 +63639,6 @@
       <c r="I280" t="s">
         <v>1105</v>
       </c>
-      <c r="J280" t="s">
-        <v>1103</v>
-      </c>
       <c r="K280" t="s">
         <v>72</v>
       </c>
@@ -64472,9 +63749,6 @@
       <c r="I281" t="s">
         <v>1107</v>
       </c>
-      <c r="J281" t="s">
-        <v>1103</v>
-      </c>
       <c r="K281" t="s">
         <v>72</v>
       </c>
@@ -64585,9 +63859,6 @@
       <c r="I282" t="s">
         <v>1109</v>
       </c>
-      <c r="J282" t="s">
-        <v>1103</v>
-      </c>
       <c r="K282" t="s">
         <v>72</v>
       </c>
@@ -64698,9 +63969,6 @@
       <c r="I283" t="s">
         <v>1113</v>
       </c>
-      <c r="J283" t="s">
-        <v>1114</v>
-      </c>
       <c r="K283" t="s">
         <v>72</v>
       </c>
@@ -64811,9 +64079,6 @@
       <c r="I284" t="s">
         <v>1116</v>
       </c>
-      <c r="J284" t="s">
-        <v>1114</v>
-      </c>
       <c r="K284" t="s">
         <v>72</v>
       </c>
@@ -64924,9 +64189,6 @@
       <c r="I285" t="s">
         <v>1118</v>
       </c>
-      <c r="J285" t="s">
-        <v>1114</v>
-      </c>
       <c r="K285" t="s">
         <v>72</v>
       </c>
@@ -65037,9 +64299,6 @@
       <c r="I286" t="s">
         <v>1120</v>
       </c>
-      <c r="J286" t="s">
-        <v>1114</v>
-      </c>
       <c r="K286" t="s">
         <v>72</v>
       </c>
@@ -65150,9 +64409,6 @@
       <c r="I287" t="s">
         <v>1122</v>
       </c>
-      <c r="J287" t="s">
-        <v>221</v>
-      </c>
       <c r="K287" t="s">
         <v>72</v>
       </c>
@@ -65263,9 +64519,6 @@
       <c r="I288" t="s">
         <v>1124</v>
       </c>
-      <c r="J288" t="s">
-        <v>307</v>
-      </c>
       <c r="K288" t="s">
         <v>72</v>
       </c>
@@ -65376,9 +64629,6 @@
       <c r="I289" t="s">
         <v>1126</v>
       </c>
-      <c r="J289" t="s">
-        <v>307</v>
-      </c>
       <c r="K289" t="s">
         <v>72</v>
       </c>
@@ -65489,9 +64739,6 @@
       <c r="I290" t="s">
         <v>1130</v>
       </c>
-      <c r="J290" t="s">
-        <v>1131</v>
-      </c>
       <c r="K290" t="s">
         <v>72</v>
       </c>
@@ -65602,9 +64849,6 @@
       <c r="I291" t="s">
         <v>1133</v>
       </c>
-      <c r="J291" t="s">
-        <v>1131</v>
-      </c>
       <c r="K291" t="s">
         <v>72</v>
       </c>
@@ -65715,9 +64959,6 @@
       <c r="I292" t="s">
         <v>1135</v>
       </c>
-      <c r="J292" t="s">
-        <v>320</v>
-      </c>
       <c r="K292" t="s">
         <v>72</v>
       </c>
@@ -65828,9 +65069,6 @@
       <c r="I293" t="s">
         <v>1137</v>
       </c>
-      <c r="J293" t="s">
-        <v>320</v>
-      </c>
       <c r="K293" t="s">
         <v>72</v>
       </c>
@@ -65941,9 +65179,6 @@
       <c r="I294" t="s">
         <v>1141</v>
       </c>
-      <c r="J294" t="s">
-        <v>1142</v>
-      </c>
       <c r="K294" t="s">
         <v>72</v>
       </c>
@@ -66054,9 +65289,6 @@
       <c r="I295" t="s">
         <v>1144</v>
       </c>
-      <c r="J295" t="s">
-        <v>1142</v>
-      </c>
       <c r="K295" t="s">
         <v>72</v>
       </c>
@@ -66167,9 +65399,6 @@
       <c r="I296" t="s">
         <v>1146</v>
       </c>
-      <c r="J296" t="s">
-        <v>1142</v>
-      </c>
       <c r="K296" t="s">
         <v>72</v>
       </c>
@@ -66280,9 +65509,6 @@
       <c r="I297" t="s">
         <v>1148</v>
       </c>
-      <c r="J297" t="s">
-        <v>1142</v>
-      </c>
       <c r="K297" t="s">
         <v>72</v>
       </c>
@@ -66393,9 +65619,6 @@
       <c r="I298" t="s">
         <v>1150</v>
       </c>
-      <c r="J298" t="s">
-        <v>1142</v>
-      </c>
       <c r="K298" t="s">
         <v>72</v>
       </c>
@@ -66506,9 +65729,6 @@
       <c r="I299" t="s">
         <v>1152</v>
       </c>
-      <c r="J299" t="s">
-        <v>1142</v>
-      </c>
       <c r="K299" t="s">
         <v>72</v>
       </c>
@@ -66619,9 +65839,6 @@
       <c r="I300" t="s">
         <v>1156</v>
       </c>
-      <c r="J300" t="s">
-        <v>1157</v>
-      </c>
       <c r="K300" t="s">
         <v>72</v>
       </c>
@@ -66732,9 +65949,6 @@
       <c r="I301" t="s">
         <v>1159</v>
       </c>
-      <c r="J301" t="s">
-        <v>1157</v>
-      </c>
       <c r="K301" t="s">
         <v>72</v>
       </c>
@@ -66845,9 +66059,6 @@
       <c r="I302" t="s">
         <v>1161</v>
       </c>
-      <c r="J302" t="s">
-        <v>1157</v>
-      </c>
       <c r="K302" t="s">
         <v>72</v>
       </c>
@@ -66958,9 +66169,6 @@
       <c r="I303" t="s">
         <v>1165</v>
       </c>
-      <c r="J303" t="s">
-        <v>1166</v>
-      </c>
       <c r="K303" t="s">
         <v>72</v>
       </c>
@@ -67071,9 +66279,6 @@
       <c r="I304" t="s">
         <v>1168</v>
       </c>
-      <c r="J304" t="s">
-        <v>1166</v>
-      </c>
       <c r="K304" t="s">
         <v>72</v>
       </c>
@@ -67184,9 +66389,6 @@
       <c r="I305" t="s">
         <v>1170</v>
       </c>
-      <c r="J305" t="s">
-        <v>1166</v>
-      </c>
       <c r="K305" t="s">
         <v>72</v>
       </c>
@@ -67297,9 +66499,6 @@
       <c r="I306" t="s">
         <v>1172</v>
       </c>
-      <c r="J306" t="s">
-        <v>330</v>
-      </c>
       <c r="K306" t="s">
         <v>72</v>
       </c>
@@ -67410,9 +66609,6 @@
       <c r="I307" t="s">
         <v>1174</v>
       </c>
-      <c r="J307" t="s">
-        <v>330</v>
-      </c>
       <c r="K307" t="s">
         <v>72</v>
       </c>
@@ -67523,9 +66719,6 @@
       <c r="I308" t="s">
         <v>1176</v>
       </c>
-      <c r="J308" t="s">
-        <v>330</v>
-      </c>
       <c r="K308" t="s">
         <v>72</v>
       </c>
@@ -67636,9 +66829,6 @@
       <c r="I309" t="s">
         <v>1180</v>
       </c>
-      <c r="J309" t="s">
-        <v>1181</v>
-      </c>
       <c r="K309" t="s">
         <v>72</v>
       </c>
@@ -67749,9 +66939,6 @@
       <c r="I310" t="s">
         <v>1183</v>
       </c>
-      <c r="J310" t="s">
-        <v>1181</v>
-      </c>
       <c r="K310" t="s">
         <v>72</v>
       </c>
@@ -67862,9 +67049,6 @@
       <c r="I311" t="s">
         <v>1185</v>
       </c>
-      <c r="J311" t="s">
-        <v>1181</v>
-      </c>
       <c r="K311" t="s">
         <v>72</v>
       </c>
@@ -67975,9 +67159,6 @@
       <c r="I312" t="s">
         <v>1192</v>
       </c>
-      <c r="J312" t="s">
-        <v>1193</v>
-      </c>
       <c r="K312" t="s">
         <v>72</v>
       </c>
@@ -68088,9 +67269,6 @@
       <c r="I313" t="s">
         <v>1195</v>
       </c>
-      <c r="J313" t="s">
-        <v>1193</v>
-      </c>
       <c r="K313" t="s">
         <v>72</v>
       </c>
@@ -68201,9 +67379,6 @@
       <c r="I314" t="s">
         <v>1197</v>
       </c>
-      <c r="J314" t="s">
-        <v>1193</v>
-      </c>
       <c r="K314" t="s">
         <v>72</v>
       </c>
@@ -68314,9 +67489,6 @@
       <c r="I315" t="s">
         <v>1199</v>
       </c>
-      <c r="J315" t="s">
-        <v>1193</v>
-      </c>
       <c r="K315" t="s">
         <v>72</v>
       </c>
@@ -68427,9 +67599,6 @@
       <c r="I316" t="s">
         <v>1203</v>
       </c>
-      <c r="J316" t="s">
-        <v>1204</v>
-      </c>
       <c r="K316" t="s">
         <v>72</v>
       </c>
@@ -68540,9 +67709,6 @@
       <c r="I317" t="s">
         <v>1206</v>
       </c>
-      <c r="J317" t="s">
-        <v>1204</v>
-      </c>
       <c r="K317" t="s">
         <v>72</v>
       </c>
@@ -68653,9 +67819,6 @@
       <c r="I318" t="s">
         <v>1210</v>
       </c>
-      <c r="J318" t="s">
-        <v>1211</v>
-      </c>
       <c r="K318" t="s">
         <v>72</v>
       </c>
@@ -68766,9 +67929,6 @@
       <c r="I319" t="s">
         <v>1213</v>
       </c>
-      <c r="J319" t="s">
-        <v>1211</v>
-      </c>
       <c r="K319" t="s">
         <v>72</v>
       </c>
@@ -68879,9 +68039,6 @@
       <c r="I320" t="s">
         <v>1217</v>
       </c>
-      <c r="J320" t="s">
-        <v>1211</v>
-      </c>
       <c r="K320" t="s">
         <v>72</v>
       </c>
@@ -68992,9 +68149,6 @@
       <c r="I321" t="s">
         <v>1219</v>
       </c>
-      <c r="J321" t="s">
-        <v>1211</v>
-      </c>
       <c r="K321" t="s">
         <v>72</v>
       </c>
@@ -69105,9 +68259,6 @@
       <c r="I322" t="s">
         <v>1223</v>
       </c>
-      <c r="J322" t="s">
-        <v>1224</v>
-      </c>
       <c r="K322" t="s">
         <v>72</v>
       </c>
@@ -69218,9 +68369,6 @@
       <c r="I323" t="s">
         <v>1226</v>
       </c>
-      <c r="J323" t="s">
-        <v>1224</v>
-      </c>
       <c r="K323" t="s">
         <v>72</v>
       </c>
@@ -69331,9 +68479,6 @@
       <c r="I324" t="s">
         <v>1228</v>
       </c>
-      <c r="J324" t="s">
-        <v>1224</v>
-      </c>
       <c r="K324" t="s">
         <v>72</v>
       </c>
@@ -69444,9 +68589,6 @@
       <c r="I325" t="s">
         <v>1232</v>
       </c>
-      <c r="J325" t="s">
-        <v>1233</v>
-      </c>
       <c r="K325" t="s">
         <v>72</v>
       </c>
@@ -69557,9 +68699,6 @@
       <c r="I326" t="s">
         <v>1235</v>
       </c>
-      <c r="J326" t="s">
-        <v>1233</v>
-      </c>
       <c r="K326" t="s">
         <v>72</v>
       </c>
@@ -69670,9 +68809,6 @@
       <c r="I327" t="s">
         <v>1239</v>
       </c>
-      <c r="J327" t="s">
-        <v>450</v>
-      </c>
       <c r="K327" t="s">
         <v>72</v>
       </c>
@@ -69783,9 +68919,6 @@
       <c r="I328" t="s">
         <v>1241</v>
       </c>
-      <c r="J328" t="s">
-        <v>450</v>
-      </c>
       <c r="K328" t="s">
         <v>72</v>
       </c>
@@ -69896,9 +69029,6 @@
       <c r="I329" t="s">
         <v>1248</v>
       </c>
-      <c r="J329" t="s">
-        <v>1249</v>
-      </c>
       <c r="K329" t="s">
         <v>72</v>
       </c>
@@ -70009,9 +69139,6 @@
       <c r="I330" t="s">
         <v>1251</v>
       </c>
-      <c r="J330" t="s">
-        <v>1249</v>
-      </c>
       <c r="K330" t="s">
         <v>72</v>
       </c>
@@ -70122,9 +69249,6 @@
       <c r="I331" t="s">
         <v>1253</v>
       </c>
-      <c r="J331" t="s">
-        <v>1249</v>
-      </c>
       <c r="K331" t="s">
         <v>72</v>
       </c>
@@ -70235,9 +69359,6 @@
       <c r="I332" t="s">
         <v>1255</v>
       </c>
-      <c r="J332" t="s">
-        <v>1249</v>
-      </c>
       <c r="K332" t="s">
         <v>72</v>
       </c>
@@ -70348,9 +69469,6 @@
       <c r="I333" t="s">
         <v>1259</v>
       </c>
-      <c r="J333" t="s">
-        <v>1260</v>
-      </c>
       <c r="K333" t="s">
         <v>72</v>
       </c>
@@ -70461,9 +69579,6 @@
       <c r="I334" t="s">
         <v>1262</v>
       </c>
-      <c r="J334" t="s">
-        <v>1260</v>
-      </c>
       <c r="K334" t="s">
         <v>72</v>
       </c>
@@ -70574,9 +69689,6 @@
       <c r="I335" t="s">
         <v>1266</v>
       </c>
-      <c r="J335" t="s">
-        <v>1260</v>
-      </c>
       <c r="K335" t="s">
         <v>72</v>
       </c>
@@ -70687,9 +69799,6 @@
       <c r="I336" t="s">
         <v>1270</v>
       </c>
-      <c r="J336" t="s">
-        <v>1271</v>
-      </c>
       <c r="K336" t="s">
         <v>72</v>
       </c>
@@ -70800,9 +69909,6 @@
       <c r="I337" t="s">
         <v>1273</v>
       </c>
-      <c r="J337" t="s">
-        <v>1271</v>
-      </c>
       <c r="K337" t="s">
         <v>72</v>
       </c>
@@ -70913,9 +70019,6 @@
       <c r="I338" t="s">
         <v>1280</v>
       </c>
-      <c r="J338" t="s">
-        <v>1281</v>
-      </c>
       <c r="K338" t="s">
         <v>72</v>
       </c>
@@ -71026,9 +70129,6 @@
       <c r="I339" t="s">
         <v>1283</v>
       </c>
-      <c r="J339" t="s">
-        <v>1281</v>
-      </c>
       <c r="K339" t="s">
         <v>72</v>
       </c>
@@ -71139,9 +70239,6 @@
       <c r="I340" t="s">
         <v>1285</v>
       </c>
-      <c r="J340" t="s">
-        <v>1281</v>
-      </c>
       <c r="K340" t="s">
         <v>72</v>
       </c>
@@ -71252,9 +70349,6 @@
       <c r="I341" t="s">
         <v>1289</v>
       </c>
-      <c r="J341" t="s">
-        <v>1281</v>
-      </c>
       <c r="K341" t="s">
         <v>72</v>
       </c>
@@ -71365,9 +70459,6 @@
       <c r="I342" t="s">
         <v>1291</v>
       </c>
-      <c r="J342" t="s">
-        <v>1281</v>
-      </c>
       <c r="K342" t="s">
         <v>72</v>
       </c>
@@ -71478,9 +70569,6 @@
       <c r="I343" t="s">
         <v>1293</v>
       </c>
-      <c r="J343" t="s">
-        <v>1281</v>
-      </c>
       <c r="K343" t="s">
         <v>72</v>
       </c>
@@ -71591,9 +70679,6 @@
       <c r="I344" t="s">
         <v>1295</v>
       </c>
-      <c r="J344" t="s">
-        <v>1281</v>
-      </c>
       <c r="K344" t="s">
         <v>72</v>
       </c>
@@ -71704,9 +70789,6 @@
       <c r="I345" t="s">
         <v>1297</v>
       </c>
-      <c r="J345" t="s">
-        <v>1281</v>
-      </c>
       <c r="K345" t="s">
         <v>72</v>
       </c>
@@ -71817,9 +70899,6 @@
       <c r="I346" t="s">
         <v>1299</v>
       </c>
-      <c r="J346" t="s">
-        <v>1281</v>
-      </c>
       <c r="K346" t="s">
         <v>72</v>
       </c>
@@ -71930,9 +71009,6 @@
       <c r="I347" t="s">
         <v>1303</v>
       </c>
-      <c r="J347" t="s">
-        <v>1304</v>
-      </c>
       <c r="K347" t="s">
         <v>72</v>
       </c>
@@ -72043,9 +71119,6 @@
       <c r="I348" t="s">
         <v>1306</v>
       </c>
-      <c r="J348" t="s">
-        <v>1304</v>
-      </c>
       <c r="K348" t="s">
         <v>72</v>
       </c>
@@ -72156,9 +71229,6 @@
       <c r="I349" t="s">
         <v>1308</v>
       </c>
-      <c r="J349" t="s">
-        <v>1304</v>
-      </c>
       <c r="K349" t="s">
         <v>72</v>
       </c>
@@ -72269,9 +71339,6 @@
       <c r="I350" t="s">
         <v>1310</v>
       </c>
-      <c r="J350" t="s">
-        <v>1304</v>
-      </c>
       <c r="K350" t="s">
         <v>72</v>
       </c>
@@ -72382,9 +71449,6 @@
       <c r="I351" t="s">
         <v>1314</v>
       </c>
-      <c r="J351" t="s">
-        <v>433</v>
-      </c>
       <c r="K351" t="s">
         <v>72</v>
       </c>
@@ -72495,9 +71559,6 @@
       <c r="I352" t="s">
         <v>1316</v>
       </c>
-      <c r="J352" t="s">
-        <v>433</v>
-      </c>
       <c r="K352" t="s">
         <v>72</v>
       </c>
@@ -72608,9 +71669,6 @@
       <c r="I353" t="s">
         <v>1318</v>
       </c>
-      <c r="J353" t="s">
-        <v>433</v>
-      </c>
       <c r="K353" t="s">
         <v>72</v>
       </c>
@@ -72721,9 +71779,6 @@
       <c r="I354" t="s">
         <v>1320</v>
       </c>
-      <c r="J354" t="s">
-        <v>433</v>
-      </c>
       <c r="K354" t="s">
         <v>72</v>
       </c>
@@ -72834,9 +71889,6 @@
       <c r="I355" t="s">
         <v>1324</v>
       </c>
-      <c r="J355" t="s">
-        <v>1325</v>
-      </c>
       <c r="K355" t="s">
         <v>72</v>
       </c>
@@ -72947,9 +71999,6 @@
       <c r="I356" t="s">
         <v>1327</v>
       </c>
-      <c r="J356" t="s">
-        <v>1325</v>
-      </c>
       <c r="K356" t="s">
         <v>72</v>
       </c>
@@ -73060,9 +72109,6 @@
       <c r="I357" t="s">
         <v>1331</v>
       </c>
-      <c r="J357" t="s">
-        <v>450</v>
-      </c>
       <c r="K357" t="s">
         <v>72</v>
       </c>
@@ -73173,9 +72219,6 @@
       <c r="I358" t="s">
         <v>1333</v>
       </c>
-      <c r="J358" t="s">
-        <v>450</v>
-      </c>
       <c r="K358" t="s">
         <v>72</v>
       </c>
@@ -73286,9 +72329,6 @@
       <c r="I359" t="s">
         <v>1335</v>
       </c>
-      <c r="J359" t="s">
-        <v>234</v>
-      </c>
       <c r="K359" t="s">
         <v>72</v>
       </c>
@@ -73399,9 +72439,6 @@
       <c r="I360" t="s">
         <v>1337</v>
       </c>
-      <c r="J360" t="s">
-        <v>234</v>
-      </c>
       <c r="K360" t="s">
         <v>72</v>
       </c>
@@ -73512,9 +72549,6 @@
       <c r="I361" t="s">
         <v>1339</v>
       </c>
-      <c r="J361" t="s">
-        <v>234</v>
-      </c>
       <c r="K361" t="s">
         <v>72</v>
       </c>
@@ -73625,9 +72659,6 @@
       <c r="I362" t="s">
         <v>1341</v>
       </c>
-      <c r="J362" t="s">
-        <v>234</v>
-      </c>
       <c r="K362" t="s">
         <v>72</v>
       </c>
@@ -73737,9 +72768,6 @@
       </c>
       <c r="I363" t="s">
         <v>1343</v>
-      </c>
-      <c r="J363" t="s">
-        <v>234</v>
       </c>
       <c r="K363" t="s">
         <v>72</v>
@@ -74139,10 +73167,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D14:D20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
